--- a/QmsHero/QmsDoc.Test/Fixtures/Processing/F-001B Document Control Index Rev2.xlsx
+++ b/QmsHero/QmsDoc.Test/Fixtures/Processing/F-001B Document Control Index Rev2.xlsx
@@ -727,7 +727,7 @@
   <x:pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <x:pageSetup scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <x:headerFooter alignWithMargins="0">
-    <x:oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Regular"&amp;10DOCUMENT NAME: &amp;"Arial,Bold"Document Control Index (F-001B)&amp;R&amp;"Arial,Regular"&amp;10&amp;K000000Effective Date: 2020-04-12 
+    <x:oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Regular"&amp;10DOCUMENT NAME: &amp;"Arial,Bold"Document Control Index (F-001B)&amp;R&amp;"Arial,Regular"&amp;10&amp;K000000Effective Date: 2018-11-26 
 Revision: 2 </x:oddHeader>
     <x:oddFooter>&amp;R&amp;"Arial,Normal"&amp;10Page &amp;P of &amp;N</x:oddFooter>
   </x:headerFooter>

--- a/QmsHero/QmsDoc.Test/Fixtures/Processing/F-001B Document Control Index Rev2.xlsx
+++ b/QmsHero/QmsDoc.Test/Fixtures/Processing/F-001B Document Control Index Rev2.xlsx
@@ -727,7 +727,7 @@
   <x:pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <x:pageSetup scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <x:headerFooter alignWithMargins="0">
-    <x:oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Regular"&amp;10DOCUMENT NAME: &amp;"Arial,Bold"Document Control Index (F-001B)&amp;R&amp;"Arial,Regular"&amp;10&amp;K000000Effective Date: 2018-11-26 
+    <x:oddHeader xml:space="preserve">&amp;L&amp;G&amp;C&amp;"Arial,Regular"&amp;10DOCUMENT NAME: &amp;"Arial,Bold"Document Control Index (F-001B)&amp;R&amp;"Arial,Regular"&amp;10&amp;K000000Effective Date: 2020-04-12 
 Revision: 2 </x:oddHeader>
     <x:oddFooter>&amp;R&amp;"Arial,Normal"&amp;10Page &amp;P of &amp;N</x:oddFooter>
   </x:headerFooter>
